--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GAMES and PROGRAMS\my programs\univ\3\univ3.1_DC_lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13D029-1A9F-4BDE-998E-AC8E3850CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC40D5-E4E5-4DB4-8E01-A0D927794032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="2790" windowWidth="17775" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Стрічкова схема" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Розмір матриці</t>
   </si>
   <si>
     <t>Послідовний алгоритм</t>
-  </si>
-  <si>
-    <t>2 процесори</t>
   </si>
   <si>
     <t>4 процесори</t>
@@ -66,11 +63,23 @@
   <si>
     <t>Метод Кеннона</t>
   </si>
+  <si>
+    <t>9 процесорів</t>
+  </si>
+  <si>
+    <t>2 процесори</t>
+  </si>
+  <si>
+    <t>3 процесори</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -347,11 +356,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -360,7 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +402,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,184 +737,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="e">
+      <c r="A5" s="6">
+        <v>504</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1162</v>
+      </c>
+      <c r="C5" s="4">
+        <v>661</v>
+      </c>
+      <c r="D5" s="14">
         <f>B5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="e">
+        <v>1.7579425113464449</v>
+      </c>
+      <c r="E5" s="4">
+        <v>514</v>
+      </c>
+      <c r="F5" s="14">
         <f>B5/E5</f>
-        <v>#DIV/0!</v>
+        <v>2.2607003891050583</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="e">
-        <f t="shared" ref="D6:D12" si="0">B6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="e">
-        <f t="shared" ref="F6:F12" si="1">B6/E6</f>
-        <v>#DIV/0!</v>
+      <c r="A6" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13644</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6237</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+        <v>2.1875901875901875</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4498</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F10" si="1">B6/E6</f>
+        <v>3.033348154735438</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>500</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="e">
+      <c r="A7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="B7" s="2">
+        <v>52487</v>
+      </c>
+      <c r="C7" s="4">
+        <v>28636</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="e">
+        <v>1.8329026400335242</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21550</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.4355916473317865</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="e">
+      <c r="A8" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="2">
+        <v>131009</v>
+      </c>
+      <c r="C8" s="4">
+        <v>84331</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="e">
+        <v>1.5535093856351756</v>
+      </c>
+      <c r="E8" s="4">
+        <v>51696</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5342192819560507</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="e">
+      <c r="A9" s="6">
+        <v>2502</v>
+      </c>
+      <c r="B9" s="2">
+        <v>265289</v>
+      </c>
+      <c r="C9" s="4">
+        <v>143274</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6" t="e">
+        <v>1.8516199729190224</v>
+      </c>
+      <c r="E9" s="4">
+        <v>105253</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.5204887271621712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="e">
+        <v>3000</v>
+      </c>
+      <c r="B10" s="3">
+        <v>408509</v>
+      </c>
+      <c r="C10" s="5">
+        <v>256051</v>
+      </c>
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6" t="e">
+        <v>1.5954204435835049</v>
+      </c>
+      <c r="E10" s="5">
+        <v>191087</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.1378168059574958</v>
       </c>
     </row>
   </sheetData>
@@ -910,10 +937,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960C5075-BD66-4A62-950E-3C449BF2222A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,184 +951,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="e">
+      <c r="A5" s="6">
+        <f>'Стрічкова схема'!A5</f>
+        <v>504</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'Стрічкова схема'!B5</f>
+        <v>1162</v>
+      </c>
+      <c r="C5" s="4">
+        <v>351</v>
+      </c>
+      <c r="D5" s="14">
         <f>B5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="e">
+        <v>3.3105413105413106</v>
+      </c>
+      <c r="E5" s="4">
+        <v>362</v>
+      </c>
+      <c r="F5" s="14">
         <f>B5/E5</f>
-        <v>#DIV/0!</v>
+        <v>3.2099447513812156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="e">
-        <f t="shared" ref="D6:D12" si="0">B6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="e">
-        <f t="shared" ref="F6:F12" si="1">B6/E6</f>
-        <v>#DIV/0!</v>
+      <c r="A6" s="6">
+        <f>'Стрічкова схема'!A6</f>
+        <v>1002</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'Стрічкова схема'!B6</f>
+        <v>13644</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3343</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+        <v>4.0813640442716119</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2634</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F10" si="1">B6/E6</f>
+        <v>5.1799544419134396</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>500</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="e">
+      <c r="A7" s="6">
+        <f>'Стрічкова схема'!A7</f>
+        <v>1500</v>
+      </c>
+      <c r="B7" s="2">
+        <f>'Стрічкова схема'!B7</f>
+        <v>52487</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13922</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="e">
+        <v>3.7700761384858499</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9827</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.3411010481326953</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="e">
+      <c r="A8" s="6">
+        <f>'Стрічкова схема'!A8</f>
+        <v>2004</v>
+      </c>
+      <c r="B8" s="2">
+        <f>'Стрічкова схема'!B8</f>
+        <v>131009</v>
+      </c>
+      <c r="C8" s="4">
+        <v>37620</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="e">
+        <v>3.4824295587453484</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25945</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.0494893042975528</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="e">
+      <c r="A9" s="6">
+        <f>'Стрічкова схема'!A9</f>
+        <v>2502</v>
+      </c>
+      <c r="B9" s="2">
+        <f>'Стрічкова схема'!B9</f>
+        <v>265289</v>
+      </c>
+      <c r="C9" s="4">
+        <v>71159</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6" t="e">
+        <v>3.7281159094422351</v>
+      </c>
+      <c r="E9" s="4">
+        <v>52279</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.0744849748464969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="e">
+        <f>'Стрічкова схема'!A10</f>
+        <v>3000</v>
+      </c>
+      <c r="B10" s="3">
+        <f>'Стрічкова схема'!B10</f>
+        <v>408509</v>
+      </c>
+      <c r="C10" s="5">
+        <v>121826</v>
+      </c>
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6" t="e">
+        <v>3.3532168830955627</v>
+      </c>
+      <c r="E10" s="5">
+        <v>91118</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.4832963849074829</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79D8DD4-BCBE-4632-B222-498EA008EB72}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,184 +1177,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="20"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="e">
+      <c r="A5" s="6">
+        <f>'Стрічкова схема'!A5</f>
+        <v>504</v>
+      </c>
+      <c r="B5" s="2">
+        <f>'Стрічкова схема'!B5</f>
+        <v>1162</v>
+      </c>
+      <c r="C5" s="4">
+        <v>412</v>
+      </c>
+      <c r="D5" s="14">
         <f>B5/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="e">
+        <v>2.820388349514563</v>
+      </c>
+      <c r="E5" s="4">
+        <v>374</v>
+      </c>
+      <c r="F5" s="14">
         <f>B5/E5</f>
-        <v>#DIV/0!</v>
+        <v>3.106951871657754</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6" t="e">
-        <f t="shared" ref="D6:D12" si="0">B6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="e">
-        <f t="shared" ref="F6:F12" si="1">B6/E6</f>
-        <v>#DIV/0!</v>
+      <c r="A6" s="6">
+        <f>'Стрічкова схема'!A6</f>
+        <v>1002</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'Стрічкова схема'!B6</f>
+        <v>13644</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3405</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" ref="D6:D10" si="0">B6/C6</f>
+        <v>4.0070484581497796</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2633</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F10" si="1">B6/E6</f>
+        <v>5.1819217622483862</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>500</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="e">
+      <c r="A7" s="6">
+        <f>'Стрічкова схема'!A7</f>
+        <v>1500</v>
+      </c>
+      <c r="B7" s="2">
+        <f>'Стрічкова схема'!B7</f>
+        <v>52487</v>
+      </c>
+      <c r="C7" s="4">
+        <v>14466</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="e">
+        <v>3.6283008433568367</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9923</v>
+      </c>
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.289428600221707</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="e">
+      <c r="A8" s="6">
+        <f>'Стрічкова схема'!A8</f>
+        <v>2004</v>
+      </c>
+      <c r="B8" s="2">
+        <f>'Стрічкова схема'!B8</f>
+        <v>131009</v>
+      </c>
+      <c r="C8" s="4">
+        <v>38312</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="e">
+        <v>3.4195291292545416</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25831</v>
+      </c>
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.0717742247686886</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1500</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="e">
+      <c r="A9" s="6">
+        <f>'Стрічкова схема'!A9</f>
+        <v>2502</v>
+      </c>
+      <c r="B9" s="2">
+        <f>'Стрічкова схема'!B9</f>
+        <v>265289</v>
+      </c>
+      <c r="C9" s="4">
+        <v>73987</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6" t="e">
+        <v>3.5856163920688768</v>
+      </c>
+      <c r="E9" s="4">
+        <v>57325</v>
+      </c>
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.6278063672045358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6" t="e">
+        <f>'Стрічкова схема'!A10</f>
+        <v>3000</v>
+      </c>
+      <c r="B10" s="3">
+        <f>'Стрічкова схема'!B10</f>
+        <v>408509</v>
+      </c>
+      <c r="C10" s="5">
+        <v>127060</v>
+      </c>
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6" t="e">
+        <v>3.2150873603022196</v>
+      </c>
+      <c r="E10" s="5">
+        <v>105854</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>2500</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3000</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.8591739565817069</v>
       </c>
     </row>
   </sheetData>
